--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\hhh\BLH-XYZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13905\Desktop\BLH-XYZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B16B9218-9C76-4540-8D21-99F93DEEB9D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CAC419E-B7A4-4EC6-86F3-89D27D7ACA54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12276" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,8 +88,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{6B71428A-5D80-47A6-8D27-582467FEF9BA}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,15 +387,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -413,7 +441,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -436,7 +464,7 @@
         <v>5345.5234499999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -459,7 +487,7 @@
         <v>4564.7566999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -479,7 +507,7 @@
         <v>64.341340000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -499,7 +527,7 @@
         <v>676.86699999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -510,7 +538,7 @@
         <v>765.12400000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -521,7 +549,7 @@
         <v>24234.4234</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -535,7 +563,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -549,7 +577,7 @@
         <v>41234</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -557,12 +585,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -573,7 +601,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -584,7 +612,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -592,12 +620,12 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -605,7 +633,7 @@
         <v>14325</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -613,7 +641,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -621,7 +649,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -629,12 +657,12 @@
         <v>456234</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -642,7 +670,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -650,7 +678,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -658,29 +686,183 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>4523</v>
+      </c>
+      <c r="D26">
+        <v>54325</v>
+      </c>
+      <c r="F26">
+        <v>56</v>
+      </c>
+      <c r="H26">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>451</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
+      </c>
+      <c r="C29">
+        <v>334</v>
+      </c>
+      <c r="E29">
+        <v>55</v>
+      </c>
+      <c r="H29">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>78</v>
+      </c>
+      <c r="C30">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>54</v>
+      </c>
+      <c r="F30">
+        <v>89</v>
+      </c>
+      <c r="G30">
+        <v>654</v>
+      </c>
+      <c r="H30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>864</v>
+      </c>
+      <c r="C31">
+        <v>645</v>
+      </c>
+      <c r="D31">
+        <v>7365</v>
+      </c>
+      <c r="E31">
+        <v>63783</v>
+      </c>
+      <c r="F31">
+        <v>836</v>
+      </c>
+      <c r="H31">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>276</v>
+      </c>
+      <c r="C32">
+        <v>262</v>
+      </c>
+      <c r="D32">
+        <v>636</v>
+      </c>
+      <c r="E32">
+        <v>3664</v>
+      </c>
+      <c r="F32">
+        <v>6489</v>
+      </c>
+      <c r="G32">
+        <v>475</v>
+      </c>
+      <c r="H32">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>41</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>42</v>
+      </c>
+      <c r="G33">
+        <v>4342</v>
+      </c>
+      <c r="H33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>435</v>
+      </c>
+      <c r="D34">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>4567</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13905\Desktop\BLH-XYZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13905\Desktop\BLH-XYZ\BLH-XYZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CAC419E-B7A4-4EC6-86F3-89D27D7ACA54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6DB0632E-7D79-43C7-8BBB-540ACA40EA79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12276" windowHeight="9156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -529,340 +529,473 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>12354.654</v>
+        <v>543</v>
       </c>
       <c r="C7">
-        <v>765.12400000000002</v>
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>667</v>
+      </c>
+      <c r="G7">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>4235.4321</v>
-      </c>
-      <c r="F8">
-        <v>24234.4234</v>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>12354.654</v>
+      </c>
+      <c r="C8">
+        <v>765.12400000000002</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>143</v>
-      </c>
-      <c r="C9">
-        <v>421</v>
-      </c>
-      <c r="D9">
-        <v>424</v>
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>4235.4321</v>
+      </c>
+      <c r="F9">
+        <v>24234.4234</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>412</v>
+        <v>143</v>
       </c>
       <c r="C10">
-        <v>4123</v>
+        <v>421</v>
       </c>
       <c r="D10">
-        <v>41234</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>657</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>412</v>
+      </c>
+      <c r="C11">
+        <v>4123</v>
+      </c>
+      <c r="D11">
+        <v>41234</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>2345</v>
-      </c>
-      <c r="G13">
-        <v>543</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>4526</v>
+        <v>2345</v>
       </c>
       <c r="G14">
-        <v>645</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="E15">
-        <v>4325</v>
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>4526</v>
+      </c>
+      <c r="G15">
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>4325</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>14325</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>5345</v>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>14325</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="E19">
         <v>5345</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="D20">
-        <v>456234</v>
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>5345</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>456234</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>645</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>456</v>
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>645</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>2454</v>
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2454</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>4523</v>
-      </c>
-      <c r="D26">
-        <v>54325</v>
-      </c>
-      <c r="F26">
-        <v>56</v>
-      </c>
-      <c r="H26">
-        <v>5563</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4523</v>
+      </c>
+      <c r="D27">
+        <v>54325</v>
+      </c>
+      <c r="F27">
+        <v>56</v>
+      </c>
+      <c r="H27">
+        <v>5563</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="C28">
-        <v>451</v>
-      </c>
-      <c r="G28">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>334</v>
-      </c>
-      <c r="E29">
-        <v>55</v>
-      </c>
-      <c r="H29">
-        <v>332</v>
+        <v>451</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="C30">
-        <v>78</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="E30">
-        <v>54</v>
-      </c>
-      <c r="F30">
-        <v>89</v>
-      </c>
-      <c r="G30">
-        <v>654</v>
+        <v>55</v>
       </c>
       <c r="H30">
-        <v>55</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>864</v>
+        <v>78</v>
       </c>
       <c r="C31">
-        <v>645</v>
+        <v>78</v>
       </c>
       <c r="D31">
-        <v>7365</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>63783</v>
+        <v>54</v>
       </c>
       <c r="F31">
-        <v>836</v>
+        <v>89</v>
+      </c>
+      <c r="G31">
+        <v>654</v>
       </c>
       <c r="H31">
-        <v>736</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>276</v>
+        <v>864</v>
       </c>
       <c r="C32">
-        <v>262</v>
+        <v>645</v>
       </c>
       <c r="D32">
-        <v>636</v>
+        <v>7365</v>
       </c>
       <c r="E32">
-        <v>3664</v>
+        <v>63783</v>
       </c>
       <c r="F32">
-        <v>6489</v>
-      </c>
-      <c r="G32">
-        <v>475</v>
+        <v>836</v>
       </c>
       <c r="H32">
-        <v>63</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="E33">
-        <v>42</v>
+        <v>3664</v>
       </c>
       <c r="F33">
-        <v>42</v>
+        <v>6489</v>
       </c>
       <c r="G33">
-        <v>4342</v>
+        <v>475</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>41</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>42</v>
+      </c>
+      <c r="G34">
+        <v>4342</v>
+      </c>
+      <c r="H34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>43</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>435</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>67</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>7</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>4567</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>7</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
